--- a/Data/EC/NIT-9008185316.xlsx
+++ b/Data/EC/NIT-9008185316.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B9AB271-C759-43F4-87F6-174928D9F804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B50BF180-DF88-416C-927E-3B838EB67811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D989278E-38B0-4B52-8B76-61B5E38DCC81}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{98DB2167-4E3A-43B3-9DC9-F03F8BB46001}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,27 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128045090</t>
+  </si>
+  <si>
+    <t>IVAN JOSE JIMENEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
     <t>73434861</t>
   </si>
   <si>
@@ -80,61 +101,40 @@
     <t>CRISTIAN ALBERTO RIVAS GALVAN</t>
   </si>
   <si>
-    <t>1128045090</t>
-  </si>
-  <si>
-    <t>IVAN JOSE JIMENEZ RODRIGUEZ</t>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
   </si>
   <si>
     <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -233,7 +233,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -246,9 +248,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -448,23 +448,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,10 +492,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBEBBE4C-5D76-8A51-7851-073535B44F30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67ED3127-2BC2-2007-6354-826E451A667E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8333584C-239B-4C5C-ACAD-7A3D9353298E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D8E9FD-AE7D-4E28-93E2-36C85470ACE7}">
   <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1080,7 +1080,7 @@
         <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1091,19 +1091,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
         <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1114,16 +1114,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>17708</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1137,13 +1137,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>31249</v>
@@ -1160,13 +1160,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1183,19 +1183,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1206,13 +1206,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1229,13 +1229,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1252,13 +1252,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1275,13 +1275,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1298,13 +1298,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1321,13 +1321,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1344,13 +1344,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1367,13 +1367,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1390,13 +1390,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1413,10 +1413,10 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>28</v>
@@ -1436,10 +1436,10 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>29</v>
@@ -1459,10 +1459,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>30</v>
@@ -1482,10 +1482,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>31</v>
@@ -1505,16 +1505,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>32</v>
       </c>
       <c r="F35" s="24">
-        <v>31249</v>
+        <v>17708</v>
       </c>
       <c r="G35" s="24">
         <v>781242</v>
